--- a/Thesis_Code_3/epsilon_182w_values.xlsx
+++ b/Thesis_Code_3/epsilon_182w_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/Graduate Research/Masters_Thesis_Code/Thesis_Code_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B5D362-1229-A64B-A361-A3EC3B94E489}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A874F34-E15F-0340-966B-8D5A072B6725}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{C1BE390D-E42C-3542-82B5-F37276582B43}"/>
+    <workbookView xWindow="5640" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{C1BE390D-E42C-3542-82B5-F37276582B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,23 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Sample</t>
   </si>
   <si>
-    <t>Given epsilon 182w</t>
-  </si>
-  <si>
-    <t>New Terrestrial Standard</t>
-  </si>
-  <si>
-    <t>Old Terrestrial Standard</t>
-  </si>
-  <si>
-    <t>New epsilon 182w</t>
-  </si>
-  <si>
     <t>IIAB Iron Meteorite</t>
   </si>
   <si>
@@ -57,7 +45,43 @@
     <t>Chondrite</t>
   </si>
   <si>
-    <t>Error</t>
+    <t>Solar System Initial</t>
+  </si>
+  <si>
+    <t>given epsilon 182w</t>
+  </si>
+  <si>
+    <t>old terrestrial standard</t>
+  </si>
+  <si>
+    <t>new terrestrial standard</t>
+  </si>
+  <si>
+    <t>sample 182w/184w</t>
+  </si>
+  <si>
+    <t>sample error 182w/184w</t>
+  </si>
+  <si>
+    <t>given error</t>
+  </si>
+  <si>
+    <t>new error</t>
+  </si>
+  <si>
+    <t>plus error</t>
+  </si>
+  <si>
+    <t>minus error</t>
+  </si>
+  <si>
+    <t>new epsilon 182</t>
+  </si>
+  <si>
+    <t>plus sample error 182w/184w</t>
+  </si>
+  <si>
+    <t>minus sample error 182w/184w</t>
   </si>
 </sst>
 </file>
@@ -409,37 +433,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669ACDEC-5143-A041-B0FE-40FAB64310D6}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>-3.4</v>
@@ -447,10 +497,50 @@
       <c r="C2">
         <v>0.03</v>
       </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>-3.37</v>
+      </c>
+      <c r="E2">
+        <f>B2-C2</f>
+        <v>-3.4299999999999997</v>
+      </c>
+      <c r="F2">
+        <f>0.8649</f>
+        <v>0.8649</v>
+      </c>
+      <c r="G2">
+        <f>0.86468</f>
+        <v>0.86468</v>
+      </c>
+      <c r="H2">
+        <f>((B2/10^4)+1)*F2</f>
+        <v>0.86460593399999996</v>
+      </c>
+      <c r="I2">
+        <f>H2-((D2/10^4)+1)*F2</f>
+        <v>-2.5946999999693077E-6</v>
+      </c>
+      <c r="J2">
+        <f>H2-((E2/10^4)+1)*F2</f>
+        <v>2.5946999999693077E-6</v>
+      </c>
+      <c r="K2">
+        <f>J2</f>
+        <v>2.5946999999693077E-6</v>
+      </c>
+      <c r="L2">
+        <f>((H2/G2)-1)*10^4</f>
+        <v>-0.85657121709825645</v>
+      </c>
+      <c r="M2">
+        <f>ABS(L2-((((H2+K2)/G2)-1)*10^4))</f>
+        <v>3.0007632881856594E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>-3.18</v>
@@ -458,10 +548,147 @@
       <c r="C3">
         <v>0.05</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">B3+C3</f>
+        <v>-3.1300000000000003</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="1">B3-C3</f>
+        <v>-3.23</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="2">0.8649</f>
+        <v>0.8649</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="3">0.86468</f>
+        <v>0.86468</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="4">((B3/10^4)+1)*F3</f>
+        <v>0.86462496179999992</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="5">H3-((D3/10^4)+1)*F3</f>
+        <v>-4.3245000000968759E-6</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="6">H3-((E3/10^4)+1)*F3</f>
+        <v>4.3244999998748312E-6</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="7">J3</f>
+        <v>4.3244999998748312E-6</v>
+      </c>
+      <c r="L3">
+        <f>((H3/G3)-1)*10^4</f>
+        <v>-0.63651524263352854</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="8">ABS(L3-((((H3+K3)/G3)-1)*10^4))</f>
+        <v>5.0012721467540544E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1.9</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-1.89</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-1.91</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.8649</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0.86468</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>0.86473566899999998</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="5"/>
+        <v>-8.6490000006378409E-7</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="6"/>
+        <v>8.6490000006378409E-7</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="7"/>
+        <v>8.6490000006378409E-7</v>
+      </c>
+      <c r="L4">
+        <f>((H4/G4)-1)*10^4</f>
+        <v>0.64381042697903013</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="8"/>
+        <v>1.0002544295062421E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-3.49</v>
+      </c>
+      <c r="C5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-3.4200000000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-3.56</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.8649</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0.86468</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>0.86459814989999995</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>-6.0543000001134217E-6</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>6.0543000000023994E-6</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>6.0543000000023994E-6</v>
+      </c>
+      <c r="L5">
+        <f>((H5/G5)-1)*10^4</f>
+        <v>-0.94659411574271601</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>7.0017810056555163E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Thesis_Code_3/epsilon_182w_values.xlsx
+++ b/Thesis_Code_3/epsilon_182w_values.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/Graduate Research/Masters_Thesis_Code/Thesis_Code_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\Masters-Thesis-Code\Thesis_Code_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A874F34-E15F-0340-966B-8D5A072B6725}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4800AC7-28B6-44AB-9A24-0830D1DBB094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{C1BE390D-E42C-3542-82B5-F37276582B43}"/>
+    <workbookView xWindow="60" yWindow="510" windowWidth="19560" windowHeight="14550" xr2:uid="{C1BE390D-E42C-3542-82B5-F37276582B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Sample</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>minus sample error 182w/184w</t>
+  </si>
+  <si>
+    <t>Eucrite</t>
   </si>
 </sst>
 </file>
@@ -433,20 +436,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669ACDEC-5143-A041-B0FE-40FAB64310D6}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -510,7 +513,6 @@
         <v>0.8649</v>
       </c>
       <c r="G2">
-        <f>0.86468</f>
         <v>0.86468</v>
       </c>
       <c r="H2">
@@ -538,7 +540,7 @@
         <v>3.0007632881856594E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -549,35 +551,34 @@
         <v>0.05</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">B3+C3</f>
+        <f t="shared" ref="D3:D6" si="0">B3+C3</f>
         <v>-3.1300000000000003</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="1">B3-C3</f>
+        <f t="shared" ref="E3:E6" si="1">B3-C3</f>
         <v>-3.23</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="2">0.8649</f>
+        <f t="shared" ref="F3:F6" si="2">0.8649</f>
         <v>0.8649</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="3">0.86468</f>
         <v>0.86468</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="4">((B3/10^4)+1)*F3</f>
+        <f t="shared" ref="H3:H5" si="3">((B3/10^4)+1)*F3</f>
         <v>0.86462496179999992</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I5" si="5">H3-((D3/10^4)+1)*F3</f>
+        <f t="shared" ref="I3:I5" si="4">H3-((D3/10^4)+1)*F3</f>
         <v>-4.3245000000968759E-6</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J5" si="6">H3-((E3/10^4)+1)*F3</f>
+        <f t="shared" ref="J3:J5" si="5">H3-((E3/10^4)+1)*F3</f>
         <v>4.3244999998748312E-6</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K5" si="7">J3</f>
+        <f t="shared" ref="K3:K5" si="6">J3</f>
         <v>4.3244999998748312E-6</v>
       </c>
       <c r="L3">
@@ -585,11 +586,11 @@
         <v>-0.63651524263352854</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M5" si="8">ABS(L3-((((H3+K3)/G3)-1)*10^4))</f>
+        <f t="shared" ref="M3:M5" si="7">ABS(L3-((((H3+K3)/G3)-1)*10^4))</f>
         <v>5.0012721467540544E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -612,23 +613,22 @@
         <v>0.8649</v>
       </c>
       <c r="G4">
+        <v>0.86468</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="3"/>
-        <v>0.86468</v>
-      </c>
-      <c r="H4">
+        <v>0.86473566899999998</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="4"/>
-        <v>0.86473566899999998</v>
-      </c>
-      <c r="I4">
+        <v>-8.6490000006378409E-7</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="5"/>
-        <v>-8.6490000006378409E-7</v>
-      </c>
-      <c r="J4">
+        <v>8.6490000006378409E-7</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="6"/>
-        <v>8.6490000006378409E-7</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="7"/>
         <v>8.6490000006378409E-7</v>
       </c>
       <c r="L4">
@@ -636,11 +636,11 @@
         <v>0.64381042697903013</v>
       </c>
       <c r="M4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0002544295062421E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -663,23 +663,22 @@
         <v>0.8649</v>
       </c>
       <c r="G5">
+        <v>0.86468</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="3"/>
-        <v>0.86468</v>
-      </c>
-      <c r="H5">
+        <v>0.86459814989999995</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="4"/>
-        <v>0.86459814989999995</v>
-      </c>
-      <c r="I5">
+        <v>-6.0543000001134217E-6</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="5"/>
-        <v>-6.0543000001134217E-6</v>
-      </c>
-      <c r="J5">
+        <v>6.0543000000023994E-6</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="6"/>
-        <v>6.0543000000023994E-6</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="7"/>
         <v>6.0543000000023994E-6</v>
       </c>
       <c r="L5">
@@ -687,8 +686,55 @@
         <v>-0.94659411574271601</v>
       </c>
       <c r="M5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7.0017810056555163E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>21.675000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.86468</v>
+      </c>
+      <c r="G6">
+        <v>0.86468</v>
+      </c>
+      <c r="H6">
+        <f>((B6/10^4)+1)*F6</f>
+        <v>0.8665541939000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6" si="8">H6-((D6/10^4)+1)*F6</f>
+        <v>1.8741939000000984E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6" si="9">H6-((E6/10^4)+1)*F6</f>
+        <v>1.8741939000000984E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6" si="10">J6</f>
+        <v>1.8741939000000984E-3</v>
+      </c>
+      <c r="L6">
+        <f>((H6/G6)-1)*10^4</f>
+        <v>21.675000000000999</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6" si="11">ABS(L6-((((H6+K6)/G6)-1)*10^4))</f>
+        <v>21.675000000000999</v>
       </c>
     </row>
   </sheetData>
